--- a/ch2/resource/sample.xlsx
+++ b/ch2/resource/sample.xlsx
@@ -1,16 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="시트1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="시트2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="급여명세" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Copied Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="시트1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,87 +413,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00ff66ff"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -507,31 +423,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="00ff66ff"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>